--- a/designed alpha/designed_alpha.xlsx
+++ b/designed alpha/designed_alpha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INTERN\HW\designed alpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3E63B326-4BE3-47DD-9EEE-F229F3A4A84B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{55539A3A-2785-47E0-827F-38253F332F96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>Formula</t>
   </si>
@@ -58,6 +58,9 @@
     <t>factor10</t>
   </si>
   <si>
+    <t>factor11</t>
+  </si>
+  <si>
     <t>factor2</t>
   </si>
   <si>
@@ -82,9 +85,15 @@
     <t>factor9</t>
   </si>
   <si>
+    <t>-Ts_Mean(Abs(close-Ts_Mean(close,{})),{})</t>
+  </si>
+  <si>
     <t>-Rank(vwap+close)/Rank(vwap-close)</t>
   </si>
   <si>
+    <t>(oper_profit)/float_mv</t>
+  </si>
+  <si>
     <t>-Correlation(Rank(((close-Ts_Min(low,%s))/(Ts_Max(high,%s)-Ts_Min(low,%s)))), Rank(volume),%s)</t>
   </si>
   <si>
@@ -109,9 +118,15 @@
     <t>-Rank(Correlation(Ts_Sum(((low*0.35)+(vwap*0.65)),{}),Ts_Sum(Ts_Mean(volume,{}),{}),{}))-Rank(Correlation(Rank(vwap),Rank(volume),{}))</t>
   </si>
   <si>
+    <t>{'交通运输': 0.07, '化工': 0.05, '商业贸易': 0.06, '建筑装饰': 0.06, '有色金属': 0.05, '机械设备': 0.08, '采掘': 0.05}</t>
+  </si>
+  <si>
     <t>{'交通运输': 0.05, '商业贸易': 0.05, '国防军工': 0.09, '建筑装饰': 0.09, '有色金属': 0.07, '机械设备': 0.06, '通信': 0.05, '采掘': 0.05}</t>
   </si>
   <si>
+    <t>{'交通运输': 0.06, '休闲服务': 0.07, '农林牧渔': 0.06, '化工': 0.05, '医药生物': 0.07, '商业贸易': 0.07, '家用电器': 0.11, '建筑材料': 0.05, '建筑装饰': 0.07, '房地产': 0.09, '有色金属': 0.05, '机械设备': 0.06, '汽车': 0.09, '电子': 0.07, '电气设备': 0.07, '纺织服装': 0.1, '综合': 0.13, '计算机': 0.05, '轻工制造': 0.11, '通信': 0.12, '采掘': 0.11, '钢铁': 0.09, '非银金融': 0.08}</t>
+  </si>
+  <si>
     <t>{'休闲服务': 0.08, '公用事业': 0.06, '国防军工': 0.07, '建筑材料': 0.06, '房地产': 0.05, '汽车': 0.07, '电子': 0.05, '计算机': 0.05, '钢铁': 0.07, '食品饮料': 0.05}</t>
   </si>
   <si>
@@ -139,15 +154,18 @@
     <t>sw1</t>
   </si>
   <si>
+    <t>['close']</t>
+  </si>
+  <si>
     <t>['close', 'vwap']</t>
   </si>
   <si>
+    <t>['oper_profit', 'float_mv']</t>
+  </si>
+  <si>
     <t>['close', 'high', 'low', 'volume']</t>
   </si>
   <si>
-    <t>['close']</t>
-  </si>
-  <si>
     <t>['close', 'EPS']</t>
   </si>
   <si>
@@ -163,9 +181,15 @@
     <t>['close', 'low', 'vwap', 'volume']</t>
   </si>
   <si>
+    <t>过去每天收盘价与前几天收盘价平均数之差绝对值的平均</t>
+  </si>
+  <si>
     <t>收盘价和加权平均价的和的排名除以加权平均价减收盘价的排名的负</t>
   </si>
   <si>
+    <t>经营收益除以市值</t>
+  </si>
+  <si>
     <t>过去每天收盘价减过去14天最低价格的差除以过去14天最大值与最小值的差的排名与过去14天交易量排名的相关系数</t>
   </si>
   <si>
@@ -193,6 +217,9 @@
     <t>ZZ800</t>
   </si>
   <si>
+    <t>[6, 6]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -220,10 +247,10 @@
     <t>价量类</t>
   </si>
   <si>
+    <t>价值类</t>
+  </si>
+  <si>
     <t>价格类</t>
-  </si>
-  <si>
-    <t>价值类</t>
   </si>
   <si>
     <t>波幅类</t>
@@ -287,11 +314,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,397 +658,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="16.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3" max="11" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="261" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="145" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="174" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="261" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>65</v>
+      <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/designed alpha/designed_alpha.xlsx
+++ b/designed alpha/designed_alpha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INTERN\HW\designed alpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{55539A3A-2785-47E0-827F-38253F332F96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C273538F-AFEF-4F78-BB0E-9DE1728F627D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>Formula</t>
   </si>
@@ -61,6 +61,12 @@
     <t>factor11</t>
   </si>
   <si>
+    <t>factor12</t>
+  </si>
+  <si>
+    <t>factor13</t>
+  </si>
+  <si>
     <t>factor2</t>
   </si>
   <si>
@@ -94,6 +100,12 @@
     <t>(oper_profit)/float_mv</t>
   </si>
   <si>
+    <t>(volume/Delay(close,{}))/(volume/close)</t>
+  </si>
+  <si>
+    <t>(Ts_Mean(turnover,{})+Ts_Mean(turnover,{})+Ts_Mean(turnover,{})+Ts_Mean(turnover,{}))/4</t>
+  </si>
+  <si>
     <t>-Correlation(Rank(((close-Ts_Min(low,%s))/(Ts_Max(high,%s)-Ts_Min(low,%s)))), Rank(volume),%s)</t>
   </si>
   <si>
@@ -127,6 +139,12 @@
     <t>{'交通运输': 0.06, '休闲服务': 0.07, '农林牧渔': 0.06, '化工': 0.05, '医药生物': 0.07, '商业贸易': 0.07, '家用电器': 0.11, '建筑材料': 0.05, '建筑装饰': 0.07, '房地产': 0.09, '有色金属': 0.05, '机械设备': 0.06, '汽车': 0.09, '电子': 0.07, '电气设备': 0.07, '纺织服装': 0.1, '综合': 0.13, '计算机': 0.05, '轻工制造': 0.11, '通信': 0.12, '采掘': 0.11, '钢铁': 0.09, '非银金融': 0.08}</t>
   </si>
   <si>
+    <t>{'交通运输': 0.08, '休闲服务': 0.05, '传媒': 0.06, '公用事业': 0.08, '化工': 0.08, '国防军工': 0.07, '建筑材料': 0.07, '建筑装饰': 0.13, '房地产': 0.08, '有色金属': 0.08, '机械设备': 0.09, '电子': 0.09, '电气设备': 0.05, '纺织服装': 0.11, '计算机': 0.06, '轻工制造': 0.1, '通信': 0.07, '采掘': 0.05, '钢铁': 0.08, '非银金融': 0.1}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.13, '传媒': 0.1, '公用事业': 0.06, '农林牧渔': 0.19, '化工': 0.07, '医药生物': 0.06, '商业贸易': 0.1, '国防军工': 0.06, '建筑材料': 0.11, '建筑装饰': 0.06, '房地产': 0.08, '有色金属': 0.1, '机械设备': 0.13, '汽车': 0.05, '电子': 0.05, '电气设备': 0.08, '纺织服装': 0.05, '计算机': 0.08, '轻工制造': 0.09, '采掘': 0.12, '钢铁': 0.1, '非银金融': 0.06}</t>
+  </si>
+  <si>
     <t>{'休闲服务': 0.08, '公用事业': 0.06, '国防军工': 0.07, '建筑材料': 0.06, '房地产': 0.05, '汽车': 0.07, '电子': 0.05, '计算机': 0.05, '钢铁': 0.07, '食品饮料': 0.05}</t>
   </si>
   <si>
@@ -163,6 +181,12 @@
     <t>['oper_profit', 'float_mv']</t>
   </si>
   <si>
+    <t>['volume', 'close']</t>
+  </si>
+  <si>
+    <t>['turnover']</t>
+  </si>
+  <si>
     <t>['close', 'high', 'low', 'volume']</t>
   </si>
   <si>
@@ -190,6 +214,12 @@
     <t>经营收益除以市值</t>
   </si>
   <si>
+    <t>当天成交量除以n天前收盘价比上当天成交量除以收盘价</t>
+  </si>
+  <si>
+    <t>4个平均换手率的平均数</t>
+  </si>
+  <si>
     <t>过去每天收盘价减过去14天最低价格的差除以过去14天最大值与最小值的差的排名与过去14天交易量排名的相关系数</t>
   </si>
   <si>
@@ -223,6 +253,12 @@
     <t>[]</t>
   </si>
   <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[5, 10, 20, 60]</t>
+  </si>
+  <si>
     <t>[14, 14, 6, 6]</t>
   </si>
   <si>
@@ -248,6 +284,9 @@
   </si>
   <si>
     <t>价值类</t>
+  </si>
+  <si>
+    <t>情绪类</t>
   </si>
   <si>
     <t>价格类</t>
@@ -658,17 +697,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3" max="11" width="16" style="1" customWidth="1"/>
+    <col min="1" max="11" width="18.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -708,34 +745,34 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1">
         <v>0.03</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="116" x14ac:dyDescent="0.35">
@@ -743,34 +780,34 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>0.03</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="333.5" x14ac:dyDescent="0.35">
@@ -778,314 +815,384 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>0.04</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="290" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="275.5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="261" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="261" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1">
         <v>0.04</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
